--- a/Output/2_WorkShop_Statistics_By_Province.xlsx
+++ b/Output/2_WorkShop_Statistics_By_Province.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -11547,7 +11547,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -12100,7 +12100,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -13285,7 +13285,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -14154,7 +14154,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -14470,7 +14470,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -15023,7 +15023,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -15655,7 +15655,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -16445,7 +16445,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -18736,7 +18736,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -18973,7 +18973,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -19052,7 +19052,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -19526,7 +19526,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -20079,7 +20079,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -20237,7 +20237,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -20474,7 +20474,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -20711,7 +20711,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -20869,7 +20869,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -20948,7 +20948,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -21264,7 +21264,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -21738,7 +21738,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -22054,7 +22054,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -22449,7 +22449,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -23397,7 +23397,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -23792,7 +23792,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -24108,7 +24108,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -24266,7 +24266,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -24582,7 +24582,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -24740,7 +24740,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -24977,7 +24977,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -25293,7 +25293,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -25530,7 +25530,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -25767,7 +25767,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -26004,7 +26004,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -26320,7 +26320,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -26715,7 +26715,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -26794,7 +26794,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -27268,7 +27268,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -27505,7 +27505,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -27821,7 +27821,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -28295,7 +28295,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -28453,7 +28453,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -28611,7 +28611,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -28848,7 +28848,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -29164,7 +29164,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -29243,7 +29243,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -29322,7 +29322,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -29638,7 +29638,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -29796,7 +29796,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -30033,7 +30033,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -30191,7 +30191,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -30349,7 +30349,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -30586,7 +30586,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -30823,7 +30823,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -30981,7 +30981,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -31060,7 +31060,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -31139,7 +31139,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -31376,7 +31376,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -31613,7 +31613,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -31692,7 +31692,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -31771,7 +31771,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -31850,7 +31850,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -32324,7 +32324,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -32561,7 +32561,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -32719,7 +32719,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -32877,7 +32877,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -33114,7 +33114,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -33351,7 +33351,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -33509,7 +33509,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -33588,7 +33588,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -33667,7 +33667,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -33904,7 +33904,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -34141,7 +34141,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -34220,7 +34220,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -34299,7 +34299,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -34378,7 +34378,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -34694,7 +34694,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -34852,7 +34852,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -35089,7 +35089,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -35247,7 +35247,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -35405,7 +35405,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -35642,7 +35642,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -35879,7 +35879,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -36037,7 +36037,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -36116,7 +36116,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -36432,7 +36432,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -36669,7 +36669,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -36748,7 +36748,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -36906,7 +36906,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -37380,7 +37380,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -37617,7 +37617,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -37775,7 +37775,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -38170,7 +38170,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -38565,7 +38565,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -38644,7 +38644,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -38960,7 +38960,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -39197,7 +39197,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -39276,7 +39276,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -39355,7 +39355,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -39434,7 +39434,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -39750,7 +39750,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -39908,7 +39908,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -40145,7 +40145,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -40303,7 +40303,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -40461,7 +40461,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -40698,7 +40698,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -40935,7 +40935,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -41093,7 +41093,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -41172,7 +41172,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -41251,7 +41251,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -41488,7 +41488,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -41725,7 +41725,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -41804,7 +41804,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -41883,7 +41883,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -41962,7 +41962,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -42278,7 +42278,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -42436,7 +42436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -42673,7 +42673,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -42831,7 +42831,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -42989,7 +42989,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -43226,7 +43226,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -43463,7 +43463,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -43621,7 +43621,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -43700,7 +43700,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -43779,7 +43779,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -44016,7 +44016,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -44253,7 +44253,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -44332,7 +44332,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -44411,7 +44411,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -44490,7 +44490,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -44806,7 +44806,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -44964,7 +44964,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -45201,7 +45201,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -45359,7 +45359,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -45517,7 +45517,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -45754,7 +45754,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -45991,7 +45991,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -46149,7 +46149,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -46228,7 +46228,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -46307,7 +46307,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -46544,7 +46544,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -46781,7 +46781,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -46860,7 +46860,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -46939,7 +46939,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -47018,7 +47018,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -47334,7 +47334,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -47492,7 +47492,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -47729,7 +47729,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -47808,7 +47808,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>كرمانشاه</t>
+          <t>کرمانشاه</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -47887,7 +47887,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -48045,7 +48045,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -48282,7 +48282,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -51205,7 +51205,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>آذربايجان شرقي</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -51284,7 +51284,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>آذربايجان غربي</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -51363,7 +51363,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>اردبيل</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -51600,7 +51600,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>ايلام</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -51837,7 +51837,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>چهارمحال وبختيارئ</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -51916,7 +51916,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>خراسان جنوبي</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -51995,7 +51995,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>خراسان رضوئ</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -52074,7 +52074,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>خراسان شمالي</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -52390,7 +52390,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>سيستان وبلوچستان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -52548,7 +52548,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>قزوين</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -52785,7 +52785,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>كرمان</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -52943,7 +52943,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>كهگيلويه وبويراحمد</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -53101,7 +53101,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>گيلان</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -53338,7 +53338,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>مرکزي</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -53575,7 +53575,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>يزد</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="C673" t="n">
